--- a/data/trans_camb/PLURIPATOLOGIA-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/PLURIPATOLOGIA-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,2; 5,25</t>
+          <t>0,2; 5,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 4,71</t>
+          <t>-0,59; 4,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,03; 19,32</t>
+          <t>11,84; 19,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,95; 9,93</t>
+          <t>3,98; 9,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,02; 11,54</t>
+          <t>4,82; 11,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,89; 28,39</t>
+          <t>21,91; 28,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,2; 7,32</t>
+          <t>3,13; 7,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,3; 7,58</t>
+          <t>3,45; 7,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,86; 23,95</t>
+          <t>18,99; 23,93</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,22; 83,68</t>
+          <t>0,85; 79,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 78,44</t>
+          <t>-7,26; 78,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>145,74; 318,84</t>
+          <t>142,07; 310,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>26,73; 84,65</t>
+          <t>28,23; 82,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>35,58; 97,27</t>
+          <t>33,39; 96,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>148,07; 238,56</t>
+          <t>151,76; 250,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>27,37; 74,45</t>
+          <t>27,6; 74,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>29,49; 77,69</t>
+          <t>30,19; 81,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>164,69; 248,98</t>
+          <t>162,94; 247,6</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 0,67</t>
+          <t>-0,94; 0,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 1,23</t>
+          <t>-0,58; 1,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,02; 6,41</t>
+          <t>3,83; 6,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 2,38</t>
+          <t>-0,26; 2,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,65; 4,45</t>
+          <t>1,55; 4,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,94; 29,45</t>
+          <t>7,91; 26,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 1,2</t>
+          <t>-0,36; 1,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 2,47</t>
+          <t>0,84; 2,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,47; 18,73</t>
+          <t>6,47; 20,0</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-46,02; 65,97</t>
+          <t>-49,38; 55,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-26,14; 116,55</t>
+          <t>-30,57; 107,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>197,31; 610,67</t>
+          <t>175,1; 570,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,84; 104,26</t>
+          <t>-9,25; 102,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>44,4; 194,4</t>
+          <t>43,22; 193,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>246,42; 1166,93</t>
+          <t>244,72; 1070,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-12,75; 68,27</t>
+          <t>-13,98; 64,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>32,26; 135,78</t>
+          <t>31,5; 132,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>271,53; 825,26</t>
+          <t>269,01; 853,12</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 1,18</t>
+          <t>-2,63; 1,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 1,85</t>
+          <t>-1,99; 1,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 3,84</t>
+          <t>-0,01; 3,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 4,08</t>
+          <t>-0,49; 3,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 3,51</t>
+          <t>-0,46; 3,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,64; 8,84</t>
+          <t>4,8; 8,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 1,69</t>
+          <t>-1,02; 1,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 2,07</t>
+          <t>-0,59; 2,18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,99; 5,82</t>
+          <t>2,98; 5,86</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-88,21; 127,16</t>
+          <t>-85,87; 120,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-68,59; 180,99</t>
+          <t>-64,64; 159,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 320,58</t>
+          <t>-2,17; 335,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-23,32; 407,33</t>
+          <t>-29,17; 345,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-39,05; 330,2</t>
+          <t>-24,86; 351,67</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>154,81; 964,52</t>
+          <t>164,9; 1034,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-44,42; 119,16</t>
+          <t>-41,71; 145,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-29,49; 144,85</t>
+          <t>-27,61; 147,7</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>105,86; 458,81</t>
+          <t>108,51; 469,34</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 1,29</t>
+          <t>-0,52; 1,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 0,97</t>
+          <t>-0,77; 0,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,19; 6,4</t>
+          <t>4,12; 6,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,89; 4,5</t>
+          <t>1,74; 4,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,85; 4,67</t>
+          <t>1,71; 4,38</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,62; 23,38</t>
+          <t>9,69; 20,09</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,0; 2,57</t>
+          <t>1,01; 2,7</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,84; 2,52</t>
+          <t>0,8; 2,51</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,52; 14,34</t>
+          <t>7,58; 15,16</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-12,61; 43,16</t>
+          <t>-13,32; 43,11</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-19,18; 32,62</t>
+          <t>-20,11; 31,33</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>107,02; 212,5</t>
+          <t>106,19; 217,67</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>24,89; 71,99</t>
+          <t>24,17; 73,17</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>24,8; 73,93</t>
+          <t>23,53; 71,64</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>135,7; 330,41</t>
+          <t>136,82; 328,55</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>18,88; 55,13</t>
+          <t>18,58; 58,95</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>15,4; 53,89</t>
+          <t>14,83; 54,31</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>140,83; 281,98</t>
+          <t>141,24; 283,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/PLURIPATOLOGIA-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/PLURIPATOLOGIA-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,2; 5,07</t>
+          <t>0,26; 5,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 4,87</t>
+          <t>-0,55; 4,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,84; 19,03</t>
+          <t>11,99; 19,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,98; 9,86</t>
+          <t>3,99; 10,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,82; 11,61</t>
+          <t>4,85; 11,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,91; 28,6</t>
+          <t>21,63; 28,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,13; 7,19</t>
+          <t>3,37; 7,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,45; 7,91</t>
+          <t>3,46; 7,87</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,99; 23,93</t>
+          <t>19,12; 24,07</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,85; 79,75</t>
+          <t>2,95; 86,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 78,15</t>
+          <t>-7,87; 71,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>142,07; 310,37</t>
+          <t>144,64; 307,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>28,23; 82,73</t>
+          <t>27,0; 84,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>33,39; 96,86</t>
+          <t>33,99; 98,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>151,76; 250,07</t>
+          <t>148,55; 247,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>27,6; 74,64</t>
+          <t>27,98; 73,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,19; 81,14</t>
+          <t>30,51; 79,86</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>162,94; 247,6</t>
+          <t>163,82; 244,89</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 0,63</t>
+          <t>-0,9; 0,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 1,28</t>
+          <t>-0,58; 1,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,83; 6,34</t>
+          <t>3,9; 6,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 2,37</t>
+          <t>-0,28; 2,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,55; 4,4</t>
+          <t>1,57; 4,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,91; 26,71</t>
+          <t>7,89; 26,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 1,17</t>
+          <t>-0,3; 1,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 2,5</t>
+          <t>0,9; 2,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,47; 20,0</t>
+          <t>6,41; 20,33</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-49,38; 55,55</t>
+          <t>-47,39; 61,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-30,57; 107,87</t>
+          <t>-28,09; 103,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>175,1; 570,67</t>
+          <t>192,73; 607,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,25; 102,49</t>
+          <t>-10,31; 99,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>43,22; 193,1</t>
+          <t>41,31; 189,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>244,72; 1070,49</t>
+          <t>240,22; 1074,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-13,98; 64,52</t>
+          <t>-11,66; 65,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>31,5; 132,09</t>
+          <t>35,54; 141,35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>269,01; 853,12</t>
+          <t>267,46; 858,54</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 1,12</t>
+          <t>-2,69; 1,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 1,86</t>
+          <t>-2,0; 1,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 3,92</t>
+          <t>0,21; 3,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 3,98</t>
+          <t>-0,43; 3,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 3,46</t>
+          <t>-0,49; 3,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,8; 8,79</t>
+          <t>4,53; 8,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 1,97</t>
+          <t>-1,1; 1,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 2,18</t>
+          <t>-0,69; 2,09</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,98; 5,86</t>
+          <t>2,98; 5,84</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-85,87; 120,24</t>
+          <t>-89,85; 93,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-64,64; 159,19</t>
+          <t>-68,43; 128,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 335,14</t>
+          <t>3,17; 337,36</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-29,17; 345,24</t>
+          <t>-31,39; 327,07</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-24,86; 351,67</t>
+          <t>-29,12; 367,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>164,9; 1034,33</t>
+          <t>142,47; 1016,83</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-41,71; 145,63</t>
+          <t>-43,2; 146,32</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-27,61; 147,7</t>
+          <t>-28,65; 155,59</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>108,51; 469,34</t>
+          <t>100,64; 430,27</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 1,26</t>
+          <t>-0,51; 1,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 0,97</t>
+          <t>-0,79; 0,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,12; 6,35</t>
+          <t>4,2; 6,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,74; 4,47</t>
+          <t>1,83; 4,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,71; 4,38</t>
+          <t>1,64; 4,45</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,69; 20,09</t>
+          <t>9,81; 20,02</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,01; 2,7</t>
+          <t>1,0; 2,7</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,51</t>
+          <t>0,81; 2,5</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,58; 15,16</t>
+          <t>7,55; 15,28</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-13,32; 43,11</t>
+          <t>-13,29; 43,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-20,11; 31,33</t>
+          <t>-20,43; 33,24</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>106,19; 217,67</t>
+          <t>110,15; 217,04</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>24,17; 73,17</t>
+          <t>25,22; 72,7</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>23,53; 71,64</t>
+          <t>22,5; 72,85</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>136,82; 328,55</t>
+          <t>139,14; 323,59</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>18,58; 58,95</t>
+          <t>17,93; 57,52</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>14,83; 54,31</t>
+          <t>15,18; 53,91</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>141,24; 283,38</t>
+          <t>140,77; 296,42</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/PLURIPATOLOGIA-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/PLURIPATOLOGIA-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,26; 5,28</t>
+          <t>0,2; 5,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 4,56</t>
+          <t>-0,06; 4,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,99; 19,47</t>
+          <t>12,03; 19,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,99; 10,07</t>
+          <t>3,95; 9,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,85; 11,65</t>
+          <t>5,02; 11,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,63; 28,41</t>
+          <t>21,89; 28,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,37; 7,21</t>
+          <t>3,2; 7,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,46; 7,87</t>
+          <t>3,3; 7,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19,12; 24,07</t>
+          <t>18,86; 23,95</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,95; 86,12</t>
+          <t>2,22; 83,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 71,77</t>
+          <t>-0,78; 78,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>144,64; 307,35</t>
+          <t>145,74; 318,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>27,0; 84,91</t>
+          <t>26,73; 84,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>33,99; 98,96</t>
+          <t>35,58; 97,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>148,55; 247,35</t>
+          <t>148,07; 238,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>27,98; 73,2</t>
+          <t>27,37; 74,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,51; 79,86</t>
+          <t>29,49; 77,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>163,82; 244,89</t>
+          <t>164,69; 248,98</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 0,66</t>
+          <t>-0,92; 0,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 1,21</t>
+          <t>-0,49; 1,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,9; 6,45</t>
+          <t>4,02; 6,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 2,21</t>
+          <t>-0,28; 2,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,57; 4,37</t>
+          <t>1,65; 4,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,89; 26,82</t>
+          <t>7,94; 29,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 1,19</t>
+          <t>-0,32; 1,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,9; 2,44</t>
+          <t>0,86; 2,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,41; 20,33</t>
+          <t>6,47; 18,73</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-47,39; 61,23</t>
+          <t>-46,02; 65,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-28,09; 103,37</t>
+          <t>-26,14; 116,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>192,73; 607,64</t>
+          <t>197,31; 610,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,31; 99,35</t>
+          <t>-10,84; 104,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>41,31; 189,25</t>
+          <t>44,4; 194,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>240,22; 1074,39</t>
+          <t>246,42; 1166,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-11,66; 65,03</t>
+          <t>-12,75; 68,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>35,54; 141,35</t>
+          <t>32,26; 135,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>267,46; 858,54</t>
+          <t>271,53; 825,26</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 1,07</t>
+          <t>-2,63; 1,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 1,61</t>
+          <t>-2,12; 1,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,21; 3,97</t>
+          <t>-0,08; 3,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 3,86</t>
+          <t>-0,36; 4,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 3,51</t>
+          <t>-0,66; 3,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,53; 8,77</t>
+          <t>4,64; 8,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 1,89</t>
+          <t>-1,04; 1,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 2,09</t>
+          <t>-0,72; 2,07</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,98; 5,84</t>
+          <t>2,99; 5,82</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-89,85; 93,2</t>
+          <t>-88,21; 127,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-68,43; 128,08</t>
+          <t>-68,59; 180,99</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,17; 337,36</t>
+          <t>-5,97; 320,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-31,39; 327,07</t>
+          <t>-23,32; 407,33</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-29,12; 367,29</t>
+          <t>-39,05; 330,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>142,47; 1016,83</t>
+          <t>154,81; 964,52</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-43,2; 146,32</t>
+          <t>-44,42; 119,16</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-28,65; 155,59</t>
+          <t>-29,49; 144,85</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>100,64; 430,27</t>
+          <t>105,86; 458,81</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 1,29</t>
+          <t>-0,46; 1,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 0,99</t>
+          <t>-0,73; 0,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,2; 6,44</t>
+          <t>4,19; 6,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,83; 4,45</t>
+          <t>1,89; 4,5</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,64; 4,45</t>
+          <t>1,85; 4,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,81; 20,02</t>
+          <t>9,62; 23,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,0; 2,7</t>
+          <t>1,0; 2,57</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,5</t>
+          <t>0,84; 2,52</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,55; 15,28</t>
+          <t>7,52; 14,34</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-13,29; 43,58</t>
+          <t>-12,61; 43,16</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-20,43; 33,24</t>
+          <t>-19,18; 32,62</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>110,15; 217,04</t>
+          <t>107,02; 212,5</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>25,22; 72,7</t>
+          <t>24,89; 71,99</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>22,5; 72,85</t>
+          <t>24,8; 73,93</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>139,14; 323,59</t>
+          <t>135,7; 330,41</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>17,93; 57,52</t>
+          <t>18,88; 55,13</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>15,18; 53,91</t>
+          <t>15,4; 53,89</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>140,77; 296,42</t>
+          <t>140,83; 281,98</t>
         </is>
       </c>
     </row>
